--- a/public/imports/agzu.xlsx
+++ b/public/imports/agzu.xlsx
@@ -1375,8 +1375,8 @@
   <dimension ref="A1:J1405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N310" sqref="N310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/imports/agzu.xlsx
+++ b/public/imports/agzu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAB462-9DFB-40E6-8726-B6D275CA57B5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АГЗУ" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -409,8 +410,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,10 +1065,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3 2" xfId="3"/>
-    <cellStyle name="Обычный 42" xfId="1"/>
-    <cellStyle name="Стиль 1" xfId="4"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 42" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Стиль 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1158,6 +1159,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1193,6 +1211,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1368,35 +1403,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J1405"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N310" sqref="N310"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.3984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="41.06640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="11" max="11" width="10.73046875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.265625" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.65" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
@@ -1422,7 +1458,7 @@
       </c>
       <c r="J1" s="52"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.65" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>49</v>
       </c>
@@ -1447,7 +1483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>49</v>
       </c>
@@ -1472,7 +1508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.65" thickBot="1">
       <c r="A4" s="41" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1533,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.65" thickBot="1">
       <c r="A5" s="41" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1558,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.65" thickBot="1">
       <c r="A6" s="41" t="s">
         <v>49</v>
       </c>
@@ -1547,7 +1583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.65" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>49</v>
       </c>
@@ -1572,7 +1608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.65" thickBot="1">
       <c r="A8" s="42" t="s">
         <v>49</v>
       </c>
@@ -1597,7 +1633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.65" thickBot="1">
       <c r="A9" s="36" t="s">
         <v>50</v>
       </c>
@@ -1622,7 +1658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.65" thickBot="1">
       <c r="A10" s="37" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.65" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>50</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.65" thickBot="1">
       <c r="A12" s="37" t="s">
         <v>50</v>
       </c>
@@ -1697,7 +1733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.65" thickBot="1">
       <c r="A13" s="37" t="s">
         <v>50</v>
       </c>
@@ -1722,7 +1758,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.65" thickBot="1">
       <c r="A14" s="38" t="s">
         <v>50</v>
       </c>
@@ -1747,7 +1783,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.65" thickBot="1">
       <c r="A15" s="36" t="s">
         <v>51</v>
       </c>
@@ -1772,7 +1808,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.65" thickBot="1">
       <c r="A16" s="37" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1833,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.65" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>51</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.65" thickBot="1">
       <c r="A18" s="37" t="s">
         <v>51</v>
       </c>
@@ -1847,7 +1883,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.65" thickBot="1">
       <c r="A19" s="37" t="s">
         <v>51</v>
       </c>
@@ -1872,7 +1908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.65" thickBot="1">
       <c r="A20" s="37" t="s">
         <v>51</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.65" thickBot="1">
       <c r="A21" s="38" t="s">
         <v>51</v>
       </c>
@@ -1922,7 +1958,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.65" thickBot="1">
       <c r="A22" s="36" t="s">
         <v>52</v>
       </c>
@@ -1947,7 +1983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.65" thickBot="1">
       <c r="A23" s="37" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +2008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.65" thickBot="1">
       <c r="A24" s="38" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +2033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.65" thickBot="1">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.65" thickBot="1">
       <c r="A26" s="37" t="s">
         <v>53</v>
       </c>
@@ -2047,7 +2083,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.65" thickBot="1">
       <c r="A27" s="37" t="s">
         <v>53</v>
       </c>
@@ -2072,7 +2108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.65" thickBot="1">
       <c r="A28" s="37" t="s">
         <v>53</v>
       </c>
@@ -2097,7 +2133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.65" thickBot="1">
       <c r="A29" s="38" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.65" thickBot="1">
       <c r="A30" s="36" t="s">
         <v>54</v>
       </c>
@@ -2147,7 +2183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.65" thickBot="1">
       <c r="A31" s="37" t="s">
         <v>54</v>
       </c>
@@ -2172,7 +2208,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.65" thickBot="1">
       <c r="A32" s="37" t="s">
         <v>54</v>
       </c>
@@ -2197,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.65" thickBot="1">
       <c r="A33" s="39" t="s">
         <v>54</v>
       </c>
@@ -2222,7 +2258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.65" thickBot="1">
       <c r="A34" s="40" t="s">
         <v>55</v>
       </c>
@@ -2247,7 +2283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.65" thickBot="1">
       <c r="A35" s="41" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +2308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.65" thickBot="1">
       <c r="A36" s="41" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.65" thickBot="1">
       <c r="A37" s="42" t="s">
         <v>55</v>
       </c>
@@ -2320,7 +2356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.65" thickBot="1">
       <c r="A38" s="43" t="s">
         <v>56</v>
       </c>
@@ -2345,7 +2381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.65" thickBot="1">
       <c r="A39" s="41" t="s">
         <v>56</v>
       </c>
@@ -2370,7 +2406,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.65" thickBot="1">
       <c r="A40" s="41" t="s">
         <v>56</v>
       </c>
@@ -2395,7 +2431,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.65" thickBot="1">
       <c r="A41" s="41" t="s">
         <v>56</v>
       </c>
@@ -2420,7 +2456,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.65" thickBot="1">
       <c r="A42" s="42" t="s">
         <v>56</v>
       </c>
@@ -2445,7 +2481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="14.65" thickBot="1">
       <c r="A43" s="43" t="s">
         <v>57</v>
       </c>
@@ -2470,7 +2506,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="14.65" thickBot="1">
       <c r="A44" s="41" t="s">
         <v>57</v>
       </c>
@@ -2495,7 +2531,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.65" thickBot="1">
       <c r="A45" s="42" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.65" thickBot="1">
       <c r="A46" s="43" t="s">
         <v>58</v>
       </c>
@@ -2545,7 +2581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="14.65" thickBot="1">
       <c r="A47" s="41" t="s">
         <v>58</v>
       </c>
@@ -2570,7 +2606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="14.65" thickBot="1">
       <c r="A48" s="42" t="s">
         <v>58</v>
       </c>
@@ -2595,7 +2631,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.65" thickBot="1">
       <c r="A49" s="43" t="s">
         <v>59</v>
       </c>
@@ -2620,7 +2656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.65" thickBot="1">
       <c r="A50" s="41" t="s">
         <v>59</v>
       </c>
@@ -2645,7 +2681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.65" thickBot="1">
       <c r="A51" s="41" t="s">
         <v>59</v>
       </c>
@@ -2668,7 +2704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.65" thickBot="1">
       <c r="A52" s="41" t="s">
         <v>59</v>
       </c>
@@ -2693,7 +2729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.65" thickBot="1">
       <c r="A53" s="42" t="s">
         <v>59</v>
       </c>
@@ -2718,7 +2754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.65" thickBot="1">
       <c r="A54" s="43" t="s">
         <v>60</v>
       </c>
@@ -2743,7 +2779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.65" thickBot="1">
       <c r="A55" s="41" t="s">
         <v>60</v>
       </c>
@@ -2768,7 +2804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="14.65" thickBot="1">
       <c r="A56" s="41" t="s">
         <v>60</v>
       </c>
@@ -2793,7 +2829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14.65" thickBot="1">
       <c r="A57" s="41" t="s">
         <v>60</v>
       </c>
@@ -2818,7 +2854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="14.65" thickBot="1">
       <c r="A58" s="44" t="s">
         <v>60</v>
       </c>
@@ -2843,7 +2879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="14.65" thickBot="1">
       <c r="A59" s="40" t="s">
         <v>61</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="14.65" thickBot="1">
       <c r="A60" s="41" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="14.65" thickBot="1">
       <c r="A61" s="41" t="s">
         <v>61</v>
       </c>
@@ -2918,7 +2954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="14.65" thickBot="1">
       <c r="A62" s="42" t="s">
         <v>61</v>
       </c>
@@ -2943,7 +2979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="14.65" thickBot="1">
       <c r="A63" s="43" t="s">
         <v>62</v>
       </c>
@@ -2968,7 +3004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="14.65" thickBot="1">
       <c r="A64" s="41" t="s">
         <v>62</v>
       </c>
@@ -2993,7 +3029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="14.65" thickBot="1">
       <c r="A65" s="41" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="14.65" thickBot="1">
       <c r="A66" s="41" t="s">
         <v>62</v>
       </c>
@@ -3043,7 +3079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="14.65" thickBot="1">
       <c r="A67" s="41" t="s">
         <v>62</v>
       </c>
@@ -3068,7 +3104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="14.65" thickBot="1">
       <c r="A68" s="41" t="s">
         <v>62</v>
       </c>
@@ -3093,7 +3129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="14.65" thickBot="1">
       <c r="A69" s="42" t="s">
         <v>62</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="14.65" thickBot="1">
       <c r="A70" s="43" t="s">
         <v>63</v>
       </c>
@@ -3143,7 +3179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="14.65" thickBot="1">
       <c r="A71" s="41" t="s">
         <v>63</v>
       </c>
@@ -3168,7 +3204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="14.65" thickBot="1">
       <c r="A72" s="41" t="s">
         <v>63</v>
       </c>
@@ -3193,7 +3229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="14.65" thickBot="1">
       <c r="A73" s="41" t="s">
         <v>63</v>
       </c>
@@ -3218,7 +3254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="14.65" thickBot="1">
       <c r="A74" s="41" t="s">
         <v>63</v>
       </c>
@@ -3243,7 +3279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="14.65" thickBot="1">
       <c r="A75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="14.65" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>63</v>
       </c>
@@ -3293,7 +3329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="14.65" thickBot="1">
       <c r="A77" s="43" t="s">
         <v>64</v>
       </c>
@@ -3318,7 +3354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="14.65" thickBot="1">
       <c r="A78" s="41" t="s">
         <v>64</v>
       </c>
@@ -3343,7 +3379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="14.65" thickBot="1">
       <c r="A79" s="41" t="s">
         <v>64</v>
       </c>
@@ -3368,7 +3404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="14.65" thickBot="1">
       <c r="A80" s="41" t="s">
         <v>64</v>
       </c>
@@ -3393,7 +3429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="14.65" thickBot="1">
       <c r="A81" s="41" t="s">
         <v>64</v>
       </c>
@@ -3418,7 +3454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="14.65" thickBot="1">
       <c r="A82" s="41" t="s">
         <v>64</v>
       </c>
@@ -3443,7 +3479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="14.65" thickBot="1">
       <c r="A83" s="44" t="s">
         <v>64</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="14.65" thickBot="1">
       <c r="A84" s="57" t="s">
         <v>114</v>
       </c>
@@ -3493,7 +3529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="14.65" thickBot="1">
       <c r="A85" s="58" t="s">
         <v>114</v>
       </c>
@@ -3518,7 +3554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="14.65" thickBot="1">
       <c r="A86" s="58" t="s">
         <v>114</v>
       </c>
@@ -3543,7 +3579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="14.65" thickBot="1">
       <c r="A87" s="58" t="s">
         <v>114</v>
       </c>
@@ -3568,7 +3604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="14.65" thickBot="1">
       <c r="A88" s="58" t="s">
         <v>114</v>
       </c>
@@ -3593,7 +3629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="14.65" thickBot="1">
       <c r="A89" s="59" t="s">
         <v>114</v>
       </c>
@@ -3618,7 +3654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="14.65" thickBot="1">
       <c r="A90" s="47" t="s">
         <v>6</v>
       </c>
@@ -3643,7 +3679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="14.65" thickBot="1">
       <c r="A91" s="48" t="s">
         <v>6</v>
       </c>
@@ -3668,7 +3704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="14.65" thickBot="1">
       <c r="A92" s="48" t="s">
         <v>6</v>
       </c>
@@ -3693,7 +3729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="14.65" thickBot="1">
       <c r="A93" s="49" t="s">
         <v>6</v>
       </c>
@@ -3718,7 +3754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="14.65" thickBot="1">
       <c r="A94" s="60" t="s">
         <v>115</v>
       </c>
@@ -3743,7 +3779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="14.65" thickBot="1">
       <c r="A95" s="58" t="s">
         <v>115</v>
       </c>
@@ -3768,7 +3804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="14.65" thickBot="1">
       <c r="A96" s="58" t="s">
         <v>115</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="14.65" thickBot="1">
       <c r="A97" s="58" t="s">
         <v>115</v>
       </c>
@@ -3818,7 +3854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="14.65" thickBot="1">
       <c r="A98" s="58" t="s">
         <v>115</v>
       </c>
@@ -3843,7 +3879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="14.65" thickBot="1">
       <c r="A99" s="58" t="s">
         <v>115</v>
       </c>
@@ -3868,7 +3904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="14.65" thickBot="1">
       <c r="A100" s="59" t="s">
         <v>115</v>
       </c>
@@ -3893,7 +3929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="14.65" thickBot="1">
       <c r="A101" s="47" t="s">
         <v>7</v>
       </c>
@@ -3918,7 +3954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="14.65" thickBot="1">
       <c r="A102" s="48" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="14.65" thickBot="1">
       <c r="A103" s="49" t="s">
         <v>7</v>
       </c>
@@ -3968,7 +4004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="14.65" thickBot="1">
       <c r="A104" s="47" t="s">
         <v>8</v>
       </c>
@@ -3993,7 +4029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="14.65" thickBot="1">
       <c r="A105" s="48" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="14.65" thickBot="1">
       <c r="A106" s="48" t="s">
         <v>8</v>
       </c>
@@ -4043,7 +4079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="14.65" thickBot="1">
       <c r="A107" s="48" t="s">
         <v>8</v>
       </c>
@@ -4068,7 +4104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="14.65" thickBot="1">
       <c r="A108" s="49" t="s">
         <v>8</v>
       </c>
@@ -4093,7 +4129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="14.65" thickBot="1">
       <c r="A109" s="47" t="s">
         <v>9</v>
       </c>
@@ -4118,7 +4154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="14.65" thickBot="1">
       <c r="A110" s="48" t="s">
         <v>9</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="14.65" thickBot="1">
       <c r="A111" s="48" t="s">
         <v>9</v>
       </c>
@@ -4168,7 +4204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="14.65" thickBot="1">
       <c r="A112" s="48" t="s">
         <v>9</v>
       </c>
@@ -4193,7 +4229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="14.65" thickBot="1">
       <c r="A113" s="48" t="s">
         <v>9</v>
       </c>
@@ -4218,7 +4254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="14.65" thickBot="1">
       <c r="A114" s="50" t="s">
         <v>9</v>
       </c>
@@ -4243,7 +4279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="14.65" thickBot="1">
       <c r="A115" s="48" t="s">
         <v>10</v>
       </c>
@@ -4268,7 +4304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="14.65" thickBot="1">
       <c r="A116" s="48" t="s">
         <v>10</v>
       </c>
@@ -4293,7 +4329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="14.65" thickBot="1">
       <c r="A117" s="49" t="s">
         <v>10</v>
       </c>
@@ -4318,7 +4354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="14.65" thickBot="1">
       <c r="A118" s="47" t="s">
         <v>11</v>
       </c>
@@ -4343,7 +4379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="14.65" thickBot="1">
       <c r="A119" s="48" t="s">
         <v>11</v>
       </c>
@@ -4368,7 +4404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="14.65" thickBot="1">
       <c r="A120" s="49" t="s">
         <v>11</v>
       </c>
@@ -4393,7 +4429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="14.65" thickBot="1">
       <c r="A121" s="47" t="s">
         <v>12</v>
       </c>
@@ -4418,7 +4454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="14.65" thickBot="1">
       <c r="A122" s="48" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="14.65" thickBot="1">
       <c r="A123" s="48" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="14.65" thickBot="1">
       <c r="A124" s="48" t="s">
         <v>12</v>
       </c>
@@ -4493,7 +4529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="14.65" thickBot="1">
       <c r="A125" s="49" t="s">
         <v>12</v>
       </c>
@@ -4518,7 +4554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="14.65" thickBot="1">
       <c r="A126" s="47" t="s">
         <v>13</v>
       </c>
@@ -4543,7 +4579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="14.65" thickBot="1">
       <c r="A127" s="49" t="s">
         <v>13</v>
       </c>
@@ -4568,7 +4604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="14.65" thickBot="1">
       <c r="A128" s="47" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="14.65" thickBot="1">
       <c r="A129" s="48" t="s">
         <v>14</v>
       </c>
@@ -4618,7 +4654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="14.65" thickBot="1">
       <c r="A130" s="48" t="s">
         <v>14</v>
       </c>
@@ -4643,7 +4679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="14.65" thickBot="1">
       <c r="A131" s="49" t="s">
         <v>14</v>
       </c>
@@ -4668,7 +4704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="14.65" thickBot="1">
       <c r="A132" s="47" t="s">
         <v>15</v>
       </c>
@@ -4693,7 +4729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="14.65" thickBot="1">
       <c r="A133" s="48" t="s">
         <v>15</v>
       </c>
@@ -4718,7 +4754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="14.65" thickBot="1">
       <c r="A134" s="49" t="s">
         <v>15</v>
       </c>
@@ -4743,7 +4779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="14.65" thickBot="1">
       <c r="A135" s="47" t="s">
         <v>16</v>
       </c>
@@ -4768,7 +4804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="14.65" thickBot="1">
       <c r="A136" s="48" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="14.65" thickBot="1">
       <c r="A137" s="48" t="s">
         <v>16</v>
       </c>
@@ -4818,7 +4854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="14.65" thickBot="1">
       <c r="A138" s="48" t="s">
         <v>16</v>
       </c>
@@ -4843,7 +4879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="14.65" thickBot="1">
       <c r="A139" s="33" t="s">
         <v>17</v>
       </c>
@@ -4868,7 +4904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="14.65" thickBot="1">
       <c r="A140" s="34" t="s">
         <v>17</v>
       </c>
@@ -4893,7 +4929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="14.65" thickBot="1">
       <c r="A141" s="35" t="s">
         <v>17</v>
       </c>
@@ -4918,7 +4954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="14.65" thickBot="1">
       <c r="A142" s="45" t="s">
         <v>18</v>
       </c>
@@ -4943,7 +4979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="14.65" thickBot="1">
       <c r="A143" s="34" t="s">
         <v>18</v>
       </c>
@@ -4968,7 +5004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="14.65" thickBot="1">
       <c r="A144" s="35" t="s">
         <v>18</v>
       </c>
@@ -4993,7 +5029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="14.65" thickBot="1">
       <c r="A145" s="61" t="s">
         <v>116</v>
       </c>
@@ -5018,7 +5054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="14.65" thickBot="1">
       <c r="A146" s="62" t="s">
         <v>116</v>
       </c>
@@ -5043,7 +5079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="14.65" thickBot="1">
       <c r="A147" s="62" t="s">
         <v>116</v>
       </c>
@@ -5068,7 +5104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="14.65" thickBot="1">
       <c r="A148" s="63" t="s">
         <v>116</v>
       </c>
@@ -5093,7 +5129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="14.65" thickBot="1">
       <c r="A149" s="61" t="s">
         <v>117</v>
       </c>
@@ -5118,7 +5154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="14.65" thickBot="1">
       <c r="A150" s="62" t="s">
         <v>117</v>
       </c>
@@ -5143,7 +5179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="14.65" thickBot="1">
       <c r="A151" s="63" t="s">
         <v>117</v>
       </c>
@@ -5168,7 +5204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="14.65" thickBot="1">
       <c r="A152" s="45" t="s">
         <v>19</v>
       </c>
@@ -5193,7 +5229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="14.65" thickBot="1">
       <c r="A153" s="34" t="s">
         <v>19</v>
       </c>
@@ -5218,7 +5254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="14.65" thickBot="1">
       <c r="A154" s="35" t="s">
         <v>19</v>
       </c>
@@ -5243,7 +5279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="14.65" thickBot="1">
       <c r="A155" s="45" t="s">
         <v>20</v>
       </c>
@@ -5268,7 +5304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="14.65" thickBot="1">
       <c r="A156" s="34" t="s">
         <v>20</v>
       </c>
@@ -5293,7 +5329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="14.65" thickBot="1">
       <c r="A157" s="35" t="s">
         <v>20</v>
       </c>
@@ -5318,7 +5354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="14.65" thickBot="1">
       <c r="A158" s="61" t="s">
         <v>118</v>
       </c>
@@ -5343,7 +5379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="14.65" thickBot="1">
       <c r="A159" s="62" t="s">
         <v>118</v>
       </c>
@@ -5368,7 +5404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="14.65" thickBot="1">
       <c r="A160" s="64" t="s">
         <v>118</v>
       </c>
@@ -5393,7 +5429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="14.65" thickBot="1">
       <c r="A161" s="33" t="s">
         <v>1</v>
       </c>
@@ -5418,7 +5454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="14.65" thickBot="1">
       <c r="A162" s="34" t="s">
         <v>1</v>
       </c>
@@ -5443,7 +5479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="14.65" thickBot="1">
       <c r="A163" s="35" t="s">
         <v>1</v>
       </c>
@@ -5468,7 +5504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="14.65" thickBot="1">
       <c r="A164" s="45" t="s">
         <v>21</v>
       </c>
@@ -5493,7 +5529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="14.65" thickBot="1">
       <c r="A165" s="34" t="s">
         <v>21</v>
       </c>
@@ -5518,7 +5554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="14.65" thickBot="1">
       <c r="A166" s="34" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="14.65" thickBot="1">
       <c r="A167" s="34" t="s">
         <v>21</v>
       </c>
@@ -5568,7 +5604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="14.65" thickBot="1">
       <c r="A168" s="34" t="s">
         <v>21</v>
       </c>
@@ -5593,7 +5629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="14.65" thickBot="1">
       <c r="A169" s="34" t="s">
         <v>21</v>
       </c>
@@ -5618,7 +5654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="14.65" thickBot="1">
       <c r="A170" s="35" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="14.65" thickBot="1">
       <c r="A171" s="45" t="s">
         <v>22</v>
       </c>
@@ -5668,7 +5704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="14.65" thickBot="1">
       <c r="A172" s="34" t="s">
         <v>22</v>
       </c>
@@ -5693,7 +5729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="14.65" thickBot="1">
       <c r="A173" s="34" t="s">
         <v>22</v>
       </c>
@@ -5718,7 +5754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="14.65" thickBot="1">
       <c r="A174" s="35" t="s">
         <v>22</v>
       </c>
@@ -5743,7 +5779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="14.65" thickBot="1">
       <c r="A175" s="45" t="s">
         <v>23</v>
       </c>
@@ -5768,7 +5804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="14.65" thickBot="1">
       <c r="A176" s="34" t="s">
         <v>23</v>
       </c>
@@ -5793,7 +5829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="14.65" thickBot="1">
       <c r="A177" s="35" t="s">
         <v>23</v>
       </c>
@@ -5818,7 +5854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="14.65" thickBot="1">
       <c r="A178" s="45" t="s">
         <v>24</v>
       </c>
@@ -5843,7 +5879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="14.65" thickBot="1">
       <c r="A179" s="34" t="s">
         <v>24</v>
       </c>
@@ -5868,7 +5904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="14.65" thickBot="1">
       <c r="A180" s="34" t="s">
         <v>24</v>
       </c>
@@ -5893,7 +5929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="14.65" thickBot="1">
       <c r="A181" s="35" t="s">
         <v>24</v>
       </c>
@@ -5918,7 +5954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="14.65" thickBot="1">
       <c r="A182" s="48" t="s">
         <v>25</v>
       </c>
@@ -5943,7 +5979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="14.65" thickBot="1">
       <c r="A183" s="48" t="s">
         <v>25</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="14.65" thickBot="1">
       <c r="A184" s="48" t="s">
         <v>25</v>
       </c>
@@ -5993,7 +6029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="14.65" thickBot="1">
       <c r="A185" s="48" t="s">
         <v>25</v>
       </c>
@@ -6018,7 +6054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="14.65" thickBot="1">
       <c r="A186" s="49" t="s">
         <v>25</v>
       </c>
@@ -6043,7 +6079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="14.65" thickBot="1">
       <c r="A187" s="47" t="s">
         <v>26</v>
       </c>
@@ -6068,7 +6104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="14.65" thickBot="1">
       <c r="A188" s="48" t="s">
         <v>26</v>
       </c>
@@ -6093,7 +6129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="14.65" thickBot="1">
       <c r="A189" s="49" t="s">
         <v>26</v>
       </c>
@@ -6118,7 +6154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="14.65" thickBot="1">
       <c r="A190" s="47" t="s">
         <v>27</v>
       </c>
@@ -6143,7 +6179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="14.65" thickBot="1">
       <c r="A191" s="48" t="s">
         <v>27</v>
       </c>
@@ -6168,7 +6204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="14.65" thickBot="1">
       <c r="A192" s="48" t="s">
         <v>27</v>
       </c>
@@ -6193,7 +6229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="14.65" thickBot="1">
       <c r="A193" s="48" t="s">
         <v>27</v>
       </c>
@@ -6218,7 +6254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="14.65" thickBot="1">
       <c r="A194" s="48" t="s">
         <v>27</v>
       </c>
@@ -6243,7 +6279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="14.65" thickBot="1">
       <c r="A195" s="48" t="s">
         <v>27</v>
       </c>
@@ -6268,7 +6304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="14.65" thickBot="1">
       <c r="A196" s="49" t="s">
         <v>27</v>
       </c>
@@ -6293,7 +6329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="14.65" thickBot="1">
       <c r="A197" s="47" t="s">
         <v>28</v>
       </c>
@@ -6318,7 +6354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="14.65" thickBot="1">
       <c r="A198" s="48" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="14.65" thickBot="1">
       <c r="A199" s="48" t="s">
         <v>28</v>
       </c>
@@ -6368,7 +6404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="14.65" thickBot="1">
       <c r="A200" s="49" t="s">
         <v>28</v>
       </c>
@@ -6393,7 +6429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="14.65" thickBot="1">
       <c r="A201" s="47" t="s">
         <v>29</v>
       </c>
@@ -6418,7 +6454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="14.65" thickBot="1">
       <c r="A202" s="48" t="s">
         <v>29</v>
       </c>
@@ -6443,7 +6479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="14.65" thickBot="1">
       <c r="A203" s="67" t="s">
         <v>125</v>
       </c>
@@ -6468,7 +6504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="14.65" thickBot="1">
       <c r="A204" s="62" t="s">
         <v>125</v>
       </c>
@@ -6493,7 +6529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="14.65" thickBot="1">
       <c r="A205" s="62" t="s">
         <v>125</v>
       </c>
@@ -6518,7 +6554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="14.65" thickBot="1">
       <c r="A206" s="62" t="s">
         <v>125</v>
       </c>
@@ -6543,7 +6579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="14.65" thickBot="1">
       <c r="A207" s="63" t="s">
         <v>125</v>
       </c>
@@ -6568,7 +6604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="14.65" thickBot="1">
       <c r="A208" s="61" t="s">
         <v>126</v>
       </c>
@@ -6593,7 +6629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="14.65" thickBot="1">
       <c r="A209" s="62" t="s">
         <v>126</v>
       </c>
@@ -6618,7 +6654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="14.65" thickBot="1">
       <c r="A210" s="62" t="s">
         <v>126</v>
       </c>
@@ -6643,7 +6679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="14.65" thickBot="1">
       <c r="A211" s="62" t="s">
         <v>126</v>
       </c>
@@ -6668,7 +6704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="14.65" thickBot="1">
       <c r="A212" s="63" t="s">
         <v>126</v>
       </c>
@@ -6693,7 +6729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="14.65" thickBot="1">
       <c r="A213" s="61" t="s">
         <v>127</v>
       </c>
@@ -6718,7 +6754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="14.65" thickBot="1">
       <c r="A214" s="62" t="s">
         <v>127</v>
       </c>
@@ -6743,7 +6779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="14.65" thickBot="1">
       <c r="A215" s="62" t="s">
         <v>127</v>
       </c>
@@ -6768,7 +6804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="14.65" thickBot="1">
       <c r="A216" s="62" t="s">
         <v>127</v>
       </c>
@@ -6793,7 +6829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="14.65" thickBot="1">
       <c r="A217" s="63" t="s">
         <v>127</v>
       </c>
@@ -6818,7 +6854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="14.65" thickBot="1">
       <c r="A218" s="61" t="s">
         <v>128</v>
       </c>
@@ -6843,7 +6879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="14.65" thickBot="1">
       <c r="A219" s="62" t="s">
         <v>128</v>
       </c>
@@ -6868,7 +6904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="14.65" thickBot="1">
       <c r="A220" s="62" t="s">
         <v>128</v>
       </c>
@@ -6893,7 +6929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="14.65" thickBot="1">
       <c r="A221" s="63" t="s">
         <v>128</v>
       </c>
@@ -6918,7 +6954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="14.65" thickBot="1">
       <c r="A222" s="61" t="s">
         <v>120</v>
       </c>
@@ -6943,7 +6979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="14.65" thickBot="1">
       <c r="A223" s="62" t="s">
         <v>120</v>
       </c>
@@ -6968,7 +7004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="14.65" thickBot="1">
       <c r="A224" s="62" t="s">
         <v>120</v>
       </c>
@@ -6993,7 +7029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="14.65" thickBot="1">
       <c r="A225" s="63" t="s">
         <v>120</v>
       </c>
@@ -7018,7 +7054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="14.65" thickBot="1">
       <c r="A226" s="61" t="s">
         <v>121</v>
       </c>
@@ -7043,7 +7079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="14.65" thickBot="1">
       <c r="A227" s="62" t="s">
         <v>121</v>
       </c>
@@ -7068,7 +7104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="14.65" thickBot="1">
       <c r="A228" s="62" t="s">
         <v>121</v>
       </c>
@@ -7093,7 +7129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="14.65" thickBot="1">
       <c r="A229" s="62" t="s">
         <v>121</v>
       </c>
@@ -7118,7 +7154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="14.65" thickBot="1">
       <c r="A230" s="64" t="s">
         <v>121</v>
       </c>
@@ -7143,7 +7179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="14.65" thickBot="1">
       <c r="A231" s="58" t="s">
         <v>122</v>
       </c>
@@ -7168,7 +7204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="14.65" thickBot="1">
       <c r="A232" s="58" t="s">
         <v>122</v>
       </c>
@@ -7193,7 +7229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="14.65" thickBot="1">
       <c r="A233" s="58" t="s">
         <v>122</v>
       </c>
@@ -7218,7 +7254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="14.65" thickBot="1">
       <c r="A234" s="58" t="s">
         <v>122</v>
       </c>
@@ -7243,7 +7279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="14.65" thickBot="1">
       <c r="A235" s="59" t="s">
         <v>122</v>
       </c>
@@ -7268,7 +7304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="14.65" thickBot="1">
       <c r="A236" s="60" t="s">
         <v>123</v>
       </c>
@@ -7293,7 +7329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="14.65" thickBot="1">
       <c r="A237" s="58" t="s">
         <v>123</v>
       </c>
@@ -7318,7 +7354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="14.65" thickBot="1">
       <c r="A238" s="58" t="s">
         <v>123</v>
       </c>
@@ -7343,7 +7379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="14.65" thickBot="1">
       <c r="A239" s="58" t="s">
         <v>123</v>
       </c>
@@ -7368,7 +7404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="14.65" thickBot="1">
       <c r="A240" s="59" t="s">
         <v>123</v>
       </c>
@@ -7393,7 +7429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="14.65" thickBot="1">
       <c r="A241" s="60" t="s">
         <v>124</v>
       </c>
@@ -7418,7 +7454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="14.65" thickBot="1">
       <c r="A242" s="58" t="s">
         <v>124</v>
       </c>
@@ -7443,7 +7479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="14.65" thickBot="1">
       <c r="A243" s="58" t="s">
         <v>124</v>
       </c>
@@ -7468,7 +7504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="14.65" thickBot="1">
       <c r="A244" s="58" t="s">
         <v>124</v>
       </c>
@@ -7493,7 +7529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="14.65" thickBot="1">
       <c r="A245" s="59" t="s">
         <v>124</v>
       </c>
@@ -7518,7 +7554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="14.65" thickBot="1">
       <c r="A246" s="47" t="s">
         <v>30</v>
       </c>
@@ -7543,7 +7579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="14.65" thickBot="1">
       <c r="A247" s="48" t="s">
         <v>30</v>
       </c>
@@ -7568,7 +7604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="14.65" thickBot="1">
       <c r="A248" s="50" t="s">
         <v>30</v>
       </c>
@@ -7593,7 +7629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="14.65" thickBot="1">
       <c r="A249" s="33" t="s">
         <v>31</v>
       </c>
@@ -7618,7 +7654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="14.65" thickBot="1">
       <c r="A250" s="34" t="s">
         <v>31</v>
       </c>
@@ -7643,7 +7679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="14.65" thickBot="1">
       <c r="A251" s="34" t="s">
         <v>31</v>
       </c>
@@ -7668,7 +7704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="14.65" thickBot="1">
       <c r="A252" s="34" t="s">
         <v>31</v>
       </c>
@@ -7693,7 +7729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="14.65" thickBot="1">
       <c r="A253" s="35" t="s">
         <v>31</v>
       </c>
@@ -7718,7 +7754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="14.65" thickBot="1">
       <c r="A254" s="45" t="s">
         <v>32</v>
       </c>
@@ -7743,7 +7779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="14.65" thickBot="1">
       <c r="A255" s="34" t="s">
         <v>32</v>
       </c>
@@ -7768,7 +7804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="14.65" thickBot="1">
       <c r="A256" s="34" t="s">
         <v>32</v>
       </c>
@@ -7793,7 +7829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="14.65" thickBot="1">
       <c r="A257" s="35" t="s">
         <v>32</v>
       </c>
@@ -7818,7 +7854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="14.65" thickBot="1">
       <c r="A258" s="45" t="s">
         <v>33</v>
       </c>
@@ -7843,7 +7879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="14.65" thickBot="1">
       <c r="A259" s="34" t="s">
         <v>33</v>
       </c>
@@ -7868,7 +7904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="14.65" thickBot="1">
       <c r="A260" s="34" t="s">
         <v>33</v>
       </c>
@@ -7893,7 +7929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="14.65" thickBot="1">
       <c r="A261" s="34" t="s">
         <v>33</v>
       </c>
@@ -7918,7 +7954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="14.65" thickBot="1">
       <c r="A262" s="35" t="s">
         <v>33</v>
       </c>
@@ -7943,7 +7979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="14.65" thickBot="1">
       <c r="A263" s="45" t="s">
         <v>34</v>
       </c>
@@ -7968,7 +8004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="14.65" thickBot="1">
       <c r="A264" s="34" t="s">
         <v>34</v>
       </c>
@@ -7993,7 +8029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="14.65" thickBot="1">
       <c r="A265" s="34" t="s">
         <v>34</v>
       </c>
@@ -8018,7 +8054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="14.65" thickBot="1">
       <c r="A266" s="34" t="s">
         <v>34</v>
       </c>
@@ -8043,7 +8079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="14.65" thickBot="1">
       <c r="A267" s="34" t="s">
         <v>34</v>
       </c>
@@ -8068,7 +8104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="14.65" thickBot="1">
       <c r="A268" s="34" t="s">
         <v>34</v>
       </c>
@@ -8093,7 +8129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="14.65" thickBot="1">
       <c r="A269" s="34" t="s">
         <v>34</v>
       </c>
@@ -8118,7 +8154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="14.65" thickBot="1">
       <c r="A270" s="65" t="s">
         <v>119</v>
       </c>
@@ -8143,7 +8179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="14.65" thickBot="1">
       <c r="A271" s="65" t="s">
         <v>119</v>
       </c>
@@ -8168,7 +8204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="14.65" thickBot="1">
       <c r="A272" s="65" t="s">
         <v>119</v>
       </c>
@@ -8193,7 +8229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="14.65" thickBot="1">
       <c r="A273" s="65" t="s">
         <v>119</v>
       </c>
@@ -8218,7 +8254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="14.65" thickBot="1">
       <c r="A274" s="65" t="s">
         <v>119</v>
       </c>
@@ -8243,7 +8279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="14.65" thickBot="1">
       <c r="A275" s="65" t="s">
         <v>119</v>
       </c>
@@ -8268,7 +8304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="14.65" thickBot="1">
       <c r="A276" s="66" t="s">
         <v>119</v>
       </c>
@@ -8293,7 +8329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="14.65" thickBot="1">
       <c r="A277" s="34" t="s">
         <v>35</v>
       </c>
@@ -8318,7 +8354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="14.65" thickBot="1">
       <c r="A278" s="34" t="s">
         <v>35</v>
       </c>
@@ -8343,7 +8379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="14.65" thickBot="1">
       <c r="A279" s="35" t="s">
         <v>35</v>
       </c>
@@ -8368,7 +8404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="14.65" thickBot="1">
       <c r="A280" s="45" t="s">
         <v>36</v>
       </c>
@@ -8393,7 +8429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="14.65" thickBot="1">
       <c r="A281" s="34" t="s">
         <v>36</v>
       </c>
@@ -8418,7 +8454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="14.65" thickBot="1">
       <c r="A282" s="35" t="s">
         <v>36</v>
       </c>
@@ -8443,7 +8479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="14.65" thickBot="1">
       <c r="A283" s="45" t="s">
         <v>37</v>
       </c>
@@ -8468,7 +8504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="14.65" thickBot="1">
       <c r="A284" s="34" t="s">
         <v>37</v>
       </c>
@@ -8493,7 +8529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="14.65" thickBot="1">
       <c r="A285" s="35" t="s">
         <v>37</v>
       </c>
@@ -8518,7 +8554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="14.65" thickBot="1">
       <c r="A286" s="45" t="s">
         <v>38</v>
       </c>
@@ -8543,7 +8579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="14.65" thickBot="1">
       <c r="A287" s="34" t="s">
         <v>38</v>
       </c>
@@ -8568,7 +8604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="14.65" thickBot="1">
       <c r="A288" s="34" t="s">
         <v>38</v>
       </c>
@@ -8593,7 +8629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="14.65" thickBot="1">
       <c r="A289" s="35" t="s">
         <v>38</v>
       </c>
@@ -8618,7 +8654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="14.65" thickBot="1">
       <c r="A290" s="45" t="s">
         <v>39</v>
       </c>
@@ -8643,7 +8679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="14.65" thickBot="1">
       <c r="A291" s="34" t="s">
         <v>39</v>
       </c>
@@ -8668,7 +8704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="14.65" thickBot="1">
       <c r="A292" s="34" t="s">
         <v>39</v>
       </c>
@@ -8693,7 +8729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="14.65" thickBot="1">
       <c r="A293" s="35" t="s">
         <v>39</v>
       </c>
@@ -8718,7 +8754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="14.65" thickBot="1">
       <c r="A294" s="45" t="s">
         <v>40</v>
       </c>
@@ -8743,7 +8779,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="14.65" thickBot="1">
       <c r="A295" s="34" t="s">
         <v>40</v>
       </c>
@@ -8768,7 +8804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="14.65" thickBot="1">
       <c r="A296" s="34" t="s">
         <v>40</v>
       </c>
@@ -8793,7 +8829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="14.65" thickBot="1">
       <c r="A297" s="34" t="s">
         <v>40</v>
       </c>
@@ -8818,7 +8854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="14.65" thickBot="1">
       <c r="A298" s="34" t="s">
         <v>40</v>
       </c>
@@ -8843,7 +8879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="14.65" thickBot="1">
       <c r="A299" s="35" t="s">
         <v>40</v>
       </c>
@@ -8868,7 +8904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="14.65" thickBot="1">
       <c r="A300" s="45" t="s">
         <v>41</v>
       </c>
@@ -8893,7 +8929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="14.65" thickBot="1">
       <c r="A301" s="34" t="s">
         <v>41</v>
       </c>
@@ -8918,7 +8954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="14.65" thickBot="1">
       <c r="A302" s="34" t="s">
         <v>41</v>
       </c>
@@ -8943,7 +8979,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="14.65" thickBot="1">
       <c r="A303" s="33" t="s">
         <v>42</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="14.65" thickBot="1">
       <c r="A304" s="34" t="s">
         <v>42</v>
       </c>
@@ -8993,7 +9029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="14.65" thickBot="1">
       <c r="A305" s="34" t="s">
         <v>42</v>
       </c>
@@ -9018,7 +9054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="14.65" thickBot="1">
       <c r="A306" s="35" t="s">
         <v>42</v>
       </c>
@@ -9043,7 +9079,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="14.65" thickBot="1">
       <c r="A307" s="45" t="s">
         <v>43</v>
       </c>
@@ -9068,7 +9104,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="14.65" thickBot="1">
       <c r="A308" s="34" t="s">
         <v>43</v>
       </c>
@@ -9093,7 +9129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="14.65" thickBot="1">
       <c r="A309" s="34" t="s">
         <v>43</v>
       </c>
@@ -9118,7 +9154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="14.65" thickBot="1">
       <c r="A310" s="35" t="s">
         <v>43</v>
       </c>
@@ -9143,7 +9179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="14.65" thickBot="1">
       <c r="A311" s="45" t="s">
         <v>44</v>
       </c>
@@ -9168,7 +9204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="14.65" thickBot="1">
       <c r="A312" s="34" t="s">
         <v>44</v>
       </c>
@@ -9193,7 +9229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="14.65" thickBot="1">
       <c r="A313" s="34" t="s">
         <v>44</v>
       </c>
@@ -9218,7 +9254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="14.65" thickBot="1">
       <c r="A314" s="35" t="s">
         <v>44</v>
       </c>
@@ -9243,7 +9279,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="14.65" thickBot="1">
       <c r="A315" s="45" t="s">
         <v>46</v>
       </c>
@@ -9268,7 +9304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="14.65" thickBot="1">
       <c r="A316" s="34" t="s">
         <v>46</v>
       </c>
@@ -9293,7 +9329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="14.65" thickBot="1">
       <c r="A317" s="34" t="s">
         <v>46</v>
       </c>
@@ -9318,7 +9354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="14.65" thickBot="1">
       <c r="A318" s="34" t="s">
         <v>46</v>
       </c>
@@ -9343,7 +9379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="14.65" thickBot="1">
       <c r="A319" s="34" t="s">
         <v>46</v>
       </c>
@@ -9368,7 +9404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="14.65" thickBot="1">
       <c r="A320" s="34" t="s">
         <v>46</v>
       </c>
@@ -9393,7 +9429,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="14.65" thickBot="1">
       <c r="A321" s="35" t="s">
         <v>46</v>
       </c>
@@ -9418,7 +9454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="14.65" thickBot="1">
       <c r="A322" s="15" t="s">
         <v>47</v>
       </c>
@@ -9443,7 +9479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="14.65" thickBot="1">
       <c r="A323" s="45" t="s">
         <v>48</v>
       </c>
@@ -9468,7 +9504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="14.65" thickBot="1">
       <c r="A324" s="34" t="s">
         <v>48</v>
       </c>
@@ -9493,7 +9529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="14.65" thickBot="1">
       <c r="A325" s="35" t="s">
         <v>48</v>
       </c>
@@ -9518,7 +9554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="14.65" thickBot="1">
       <c r="A326" s="45" t="s">
         <v>45</v>
       </c>
@@ -9543,7 +9579,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="14.65" thickBot="1">
       <c r="A327" s="34" t="s">
         <v>45</v>
       </c>
@@ -9568,7 +9604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="14.65" thickBot="1">
       <c r="A328" s="34" t="s">
         <v>45</v>
       </c>
@@ -9593,7 +9629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="14.65" thickBot="1">
       <c r="A329" s="46" t="s">
         <v>45</v>
       </c>
@@ -9617,3234 +9653,6 @@
       <c r="I329" s="81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C330" s="4"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C331" s="4"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C332" s="4"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C333" s="4"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C334" s="4"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C335" s="4"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C336" s="4"/>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C337" s="4"/>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C338" s="4"/>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="4"/>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C340" s="4"/>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C341" s="4"/>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C342" s="4"/>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C343" s="4"/>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C344" s="4"/>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C345" s="4"/>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C346" s="4"/>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C347" s="4"/>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C348" s="4"/>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="4"/>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="4"/>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="4"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="4"/>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="4"/>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="4"/>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="4"/>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="4"/>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="4"/>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="4"/>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="4"/>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="4"/>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="4"/>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="4"/>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="4"/>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="4"/>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="4"/>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="4"/>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="4"/>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="4"/>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="4"/>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="4"/>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="4"/>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="4"/>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="4"/>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="4"/>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="4"/>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="4"/>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="4"/>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="4"/>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="4"/>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="4"/>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="4"/>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="4"/>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="4"/>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="4"/>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="4"/>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="4"/>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="4"/>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="4"/>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="4"/>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="4"/>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="4"/>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="4"/>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="4"/>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="4"/>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="4"/>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="4"/>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="4"/>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="4"/>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="4"/>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="4"/>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="4"/>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="4"/>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="4"/>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="4"/>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="4"/>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="4"/>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="4"/>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="4"/>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="4"/>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="4"/>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="4"/>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="4"/>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C415" s="4"/>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C416" s="4"/>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C417" s="4"/>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C418" s="4"/>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C419" s="4"/>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C420" s="4"/>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C421" s="4"/>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C422" s="4"/>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C423" s="4"/>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C424" s="4"/>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C425" s="4"/>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C426" s="4"/>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C427" s="4"/>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C428" s="4"/>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C429" s="4"/>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C430" s="4"/>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C431" s="4"/>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C432" s="4"/>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C433" s="4"/>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C434" s="4"/>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C435" s="4"/>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C436" s="4"/>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C437" s="4"/>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C438" s="4"/>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C439" s="4"/>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C440" s="4"/>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C441" s="4"/>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C442" s="4"/>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C443" s="4"/>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C444" s="4"/>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C445" s="4"/>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C446" s="4"/>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C447" s="4"/>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C448" s="4"/>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C449" s="4"/>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C450" s="4"/>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C451" s="4"/>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C452" s="4"/>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C453" s="4"/>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C454" s="4"/>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C455" s="4"/>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C456" s="4"/>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C457" s="4"/>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C458" s="4"/>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C459" s="4"/>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C460" s="4"/>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C461" s="4"/>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C462" s="4"/>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C463" s="4"/>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C464" s="4"/>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C465" s="4"/>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C466" s="4"/>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C467" s="4"/>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C468" s="4"/>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C469" s="4"/>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C470" s="4"/>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C471" s="4"/>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C472" s="4"/>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C473" s="4"/>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C474" s="4"/>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C475" s="4"/>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C476" s="4"/>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C477" s="4"/>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C478" s="4"/>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C479" s="4"/>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C480" s="4"/>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C481" s="4"/>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C482" s="4"/>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C483" s="4"/>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C484" s="4"/>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C485" s="4"/>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C486" s="4"/>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C487" s="4"/>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C488" s="4"/>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C489" s="4"/>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C490" s="4"/>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C491" s="4"/>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C492" s="4"/>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C493" s="4"/>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C494" s="4"/>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C495" s="4"/>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C496" s="4"/>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C497" s="4"/>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C498" s="4"/>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C499" s="4"/>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C500" s="4"/>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C501" s="4"/>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C502" s="4"/>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C503" s="4"/>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C504" s="4"/>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C505" s="4"/>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C506" s="4"/>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C507" s="4"/>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C508" s="4"/>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C509" s="4"/>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C510" s="4"/>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C511" s="4"/>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C512" s="4"/>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C513" s="4"/>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C514" s="4"/>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C515" s="4"/>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C516" s="4"/>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C517" s="4"/>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C518" s="4"/>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C519" s="4"/>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C520" s="4"/>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C521" s="4"/>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C522" s="4"/>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C523" s="4"/>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C524" s="4"/>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C525" s="4"/>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C526" s="4"/>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C527" s="4"/>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C528" s="4"/>
-    </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C529" s="4"/>
-    </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C530" s="4"/>
-    </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C531" s="4"/>
-    </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C532" s="4"/>
-    </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C533" s="4"/>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C534" s="4"/>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C535" s="4"/>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C536" s="4"/>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C537" s="4"/>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C538" s="4"/>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C539" s="4"/>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C540" s="4"/>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C541" s="4"/>
-    </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C542" s="4"/>
-    </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C543" s="4"/>
-    </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C544" s="4"/>
-    </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C545" s="4"/>
-    </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C546" s="4"/>
-    </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C547" s="4"/>
-    </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C548" s="4"/>
-    </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C549" s="4"/>
-    </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C550" s="4"/>
-    </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C551" s="4"/>
-    </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C552" s="4"/>
-    </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C553" s="4"/>
-    </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C554" s="4"/>
-    </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C555" s="4"/>
-    </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C556" s="4"/>
-    </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C557" s="4"/>
-    </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C558" s="4"/>
-    </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C559" s="4"/>
-    </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C560" s="4"/>
-    </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C561" s="4"/>
-    </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C562" s="4"/>
-    </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C563" s="4"/>
-    </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C564" s="4"/>
-    </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C565" s="4"/>
-    </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C566" s="4"/>
-    </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C567" s="4"/>
-    </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C568" s="4"/>
-    </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C569" s="4"/>
-    </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C570" s="4"/>
-    </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C571" s="4"/>
-    </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C572" s="4"/>
-    </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C573" s="4"/>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C574" s="4"/>
-    </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C575" s="4"/>
-    </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C576" s="4"/>
-    </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C577" s="4"/>
-    </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C578" s="4"/>
-    </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C579" s="4"/>
-    </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C580" s="4"/>
-    </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C581" s="4"/>
-    </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C582" s="4"/>
-    </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C583" s="4"/>
-    </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C584" s="4"/>
-    </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C585" s="4"/>
-    </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C586" s="4"/>
-    </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C587" s="4"/>
-    </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C588" s="4"/>
-    </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C589" s="4"/>
-    </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C590" s="4"/>
-    </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C591" s="4"/>
-    </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C592" s="4"/>
-    </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C593" s="4"/>
-    </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C594" s="4"/>
-    </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C595" s="4"/>
-    </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C596" s="4"/>
-    </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C597" s="4"/>
-    </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C598" s="4"/>
-    </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C599" s="4"/>
-    </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C600" s="4"/>
-    </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C601" s="4"/>
-    </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C602" s="4"/>
-    </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C603" s="4"/>
-    </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C604" s="4"/>
-    </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C605" s="4"/>
-    </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C606" s="4"/>
-    </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C607" s="4"/>
-    </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C608" s="4"/>
-    </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C609" s="4"/>
-    </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C610" s="4"/>
-    </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C611" s="4"/>
-    </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C612" s="4"/>
-    </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C613" s="4"/>
-    </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C614" s="4"/>
-    </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C615" s="4"/>
-    </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C616" s="4"/>
-    </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C617" s="4"/>
-    </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C618" s="4"/>
-    </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C619" s="4"/>
-    </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C620" s="4"/>
-    </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C621" s="4"/>
-    </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C622" s="4"/>
-    </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C623" s="4"/>
-    </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C624" s="4"/>
-    </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C625" s="4"/>
-    </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C626" s="4"/>
-    </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C627" s="4"/>
-    </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C628" s="4"/>
-    </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C629" s="4"/>
-    </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C630" s="4"/>
-    </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C631" s="4"/>
-    </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C632" s="4"/>
-    </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C633" s="4"/>
-    </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C634" s="4"/>
-    </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C635" s="4"/>
-    </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C636" s="4"/>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C637" s="4"/>
-    </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C638" s="4"/>
-    </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C639" s="4"/>
-    </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C640" s="4"/>
-    </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C641" s="4"/>
-    </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C642" s="4"/>
-    </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C643" s="4"/>
-    </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C644" s="4"/>
-    </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C645" s="4"/>
-    </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C646" s="4"/>
-    </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C647" s="4"/>
-    </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C648" s="4"/>
-    </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C649" s="4"/>
-    </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C650" s="4"/>
-    </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C651" s="4"/>
-    </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C652" s="4"/>
-    </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C653" s="4"/>
-    </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C654" s="4"/>
-    </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C655" s="4"/>
-    </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C656" s="4"/>
-    </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C657" s="4"/>
-    </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C658" s="4"/>
-    </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C659" s="4"/>
-    </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C660" s="4"/>
-    </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C661" s="4"/>
-    </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C662" s="4"/>
-    </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C663" s="4"/>
-    </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C664" s="4"/>
-    </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C665" s="4"/>
-    </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C666" s="4"/>
-    </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C667" s="4"/>
-    </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C668" s="4"/>
-    </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C669" s="4"/>
-    </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C670" s="4"/>
-    </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C671" s="4"/>
-    </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C672" s="4"/>
-    </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C673" s="4"/>
-    </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C674" s="4"/>
-    </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C675" s="4"/>
-    </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C676" s="4"/>
-    </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C677" s="4"/>
-    </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C678" s="4"/>
-    </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C679" s="4"/>
-    </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C680" s="4"/>
-    </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C681" s="4"/>
-    </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C682" s="4"/>
-    </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C683" s="4"/>
-    </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C684" s="4"/>
-    </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C685" s="4"/>
-    </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C686" s="4"/>
-    </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C687" s="4"/>
-    </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C688" s="4"/>
-    </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C689" s="4"/>
-    </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C690" s="4"/>
-    </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C691" s="4"/>
-    </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C692" s="4"/>
-    </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C693" s="4"/>
-    </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C694" s="4"/>
-    </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C695" s="4"/>
-    </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C696" s="4"/>
-    </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C697" s="4"/>
-    </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C698" s="4"/>
-    </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C699" s="4"/>
-    </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C700" s="4"/>
-    </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C701" s="4"/>
-    </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C702" s="4"/>
-    </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C703" s="4"/>
-    </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C704" s="4"/>
-    </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C705" s="4"/>
-    </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C706" s="4"/>
-    </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C707" s="4"/>
-    </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C708" s="4"/>
-    </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C709" s="4"/>
-    </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C710" s="4"/>
-    </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C711" s="4"/>
-    </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C712" s="4"/>
-    </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C713" s="4"/>
-    </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C714" s="4"/>
-    </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C715" s="4"/>
-    </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C716" s="4"/>
-    </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C717" s="4"/>
-    </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C718" s="4"/>
-    </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C719" s="4"/>
-    </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C720" s="4"/>
-    </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C721" s="4"/>
-    </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C722" s="4"/>
-    </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C723" s="4"/>
-    </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C724" s="4"/>
-    </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C725" s="4"/>
-    </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C726" s="4"/>
-    </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C727" s="4"/>
-    </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C728" s="4"/>
-    </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C729" s="4"/>
-    </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C730" s="4"/>
-    </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C731" s="4"/>
-    </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C732" s="4"/>
-    </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C733" s="4"/>
-    </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C734" s="4"/>
-    </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C735" s="4"/>
-    </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C736" s="4"/>
-    </row>
-    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C737" s="4"/>
-    </row>
-    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C738" s="4"/>
-    </row>
-    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C739" s="4"/>
-    </row>
-    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C740" s="4"/>
-    </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C741" s="4"/>
-    </row>
-    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C742" s="4"/>
-    </row>
-    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C743" s="4"/>
-    </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C744" s="4"/>
-    </row>
-    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C745" s="4"/>
-    </row>
-    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C746" s="4"/>
-    </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C747" s="4"/>
-    </row>
-    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C748" s="4"/>
-    </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C749" s="4"/>
-    </row>
-    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C750" s="4"/>
-    </row>
-    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C751" s="4"/>
-    </row>
-    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C752" s="4"/>
-    </row>
-    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C753" s="4"/>
-    </row>
-    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C754" s="4"/>
-    </row>
-    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C755" s="4"/>
-    </row>
-    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C756" s="4"/>
-    </row>
-    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C757" s="4"/>
-    </row>
-    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C758" s="4"/>
-    </row>
-    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C759" s="4"/>
-    </row>
-    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C760" s="4"/>
-    </row>
-    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C761" s="4"/>
-    </row>
-    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C762" s="4"/>
-    </row>
-    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C763" s="4"/>
-    </row>
-    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C764" s="4"/>
-    </row>
-    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C765" s="4"/>
-    </row>
-    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C766" s="4"/>
-    </row>
-    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C767" s="4"/>
-    </row>
-    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C768" s="4"/>
-    </row>
-    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C769" s="4"/>
-    </row>
-    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C770" s="4"/>
-    </row>
-    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C771" s="4"/>
-    </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C772" s="4"/>
-    </row>
-    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C773" s="4"/>
-    </row>
-    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C774" s="4"/>
-    </row>
-    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C775" s="4"/>
-    </row>
-    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C776" s="4"/>
-    </row>
-    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C777" s="4"/>
-    </row>
-    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C778" s="4"/>
-    </row>
-    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C779" s="4"/>
-    </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C780" s="4"/>
-    </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C781" s="4"/>
-    </row>
-    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C782" s="4"/>
-    </row>
-    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C783" s="4"/>
-    </row>
-    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C784" s="4"/>
-    </row>
-    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C785" s="4"/>
-    </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C786" s="4"/>
-    </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C787" s="4"/>
-    </row>
-    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C788" s="4"/>
-    </row>
-    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C789" s="4"/>
-    </row>
-    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C790" s="4"/>
-    </row>
-    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C791" s="4"/>
-    </row>
-    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C792" s="4"/>
-    </row>
-    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C793" s="4"/>
-    </row>
-    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C794" s="4"/>
-    </row>
-    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C795" s="4"/>
-    </row>
-    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C796" s="4"/>
-    </row>
-    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C797" s="4"/>
-    </row>
-    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C798" s="4"/>
-    </row>
-    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C799" s="4"/>
-    </row>
-    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C800" s="4"/>
-    </row>
-    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C801" s="4"/>
-    </row>
-    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C802" s="4"/>
-    </row>
-    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C803" s="4"/>
-    </row>
-    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C804" s="4"/>
-    </row>
-    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C805" s="4"/>
-    </row>
-    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C806" s="4"/>
-    </row>
-    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C807" s="4"/>
-    </row>
-    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C808" s="4"/>
-    </row>
-    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C809" s="4"/>
-    </row>
-    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C810" s="4"/>
-    </row>
-    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C811" s="4"/>
-    </row>
-    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C812" s="4"/>
-    </row>
-    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C813" s="4"/>
-    </row>
-    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C814" s="4"/>
-    </row>
-    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C815" s="4"/>
-    </row>
-    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C816" s="4"/>
-    </row>
-    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C817" s="4"/>
-    </row>
-    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C818" s="4"/>
-    </row>
-    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C819" s="4"/>
-    </row>
-    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C820" s="4"/>
-    </row>
-    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C821" s="4"/>
-    </row>
-    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C822" s="4"/>
-    </row>
-    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C823" s="4"/>
-    </row>
-    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C824" s="4"/>
-    </row>
-    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C825" s="4"/>
-    </row>
-    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C826" s="4"/>
-    </row>
-    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C827" s="4"/>
-    </row>
-    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C828" s="4"/>
-    </row>
-    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C829" s="4"/>
-    </row>
-    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C830" s="4"/>
-    </row>
-    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C831" s="4"/>
-    </row>
-    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C832" s="4"/>
-    </row>
-    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C833" s="4"/>
-    </row>
-    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C834" s="4"/>
-    </row>
-    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C835" s="4"/>
-    </row>
-    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C836" s="4"/>
-    </row>
-    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C837" s="4"/>
-    </row>
-    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C838" s="4"/>
-    </row>
-    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C839" s="4"/>
-    </row>
-    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C840" s="4"/>
-    </row>
-    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C841" s="4"/>
-    </row>
-    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C842" s="4"/>
-    </row>
-    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C843" s="4"/>
-    </row>
-    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C844" s="4"/>
-    </row>
-    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C845" s="4"/>
-    </row>
-    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C846" s="4"/>
-    </row>
-    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C847" s="4"/>
-    </row>
-    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C848" s="4"/>
-    </row>
-    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C849" s="4"/>
-    </row>
-    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C850" s="4"/>
-    </row>
-    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C851" s="4"/>
-    </row>
-    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C852" s="4"/>
-    </row>
-    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C853" s="4"/>
-    </row>
-    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C854" s="4"/>
-    </row>
-    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C855" s="4"/>
-    </row>
-    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C856" s="4"/>
-    </row>
-    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C857" s="4"/>
-    </row>
-    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C858" s="4"/>
-    </row>
-    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C859" s="4"/>
-    </row>
-    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C860" s="4"/>
-    </row>
-    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C861" s="4"/>
-    </row>
-    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C862" s="4"/>
-    </row>
-    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C863" s="4"/>
-    </row>
-    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C864" s="4"/>
-    </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C865" s="4"/>
-    </row>
-    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C866" s="4"/>
-    </row>
-    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C867" s="4"/>
-    </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C868" s="4"/>
-    </row>
-    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C869" s="4"/>
-    </row>
-    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C870" s="4"/>
-    </row>
-    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C871" s="4"/>
-    </row>
-    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C872" s="4"/>
-    </row>
-    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C873" s="4"/>
-    </row>
-    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C874" s="4"/>
-    </row>
-    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C875" s="4"/>
-    </row>
-    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C876" s="4"/>
-    </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C877" s="4"/>
-    </row>
-    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C878" s="4"/>
-    </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C879" s="4"/>
-    </row>
-    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C880" s="4"/>
-    </row>
-    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C881" s="4"/>
-    </row>
-    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C882" s="4"/>
-    </row>
-    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C883" s="4"/>
-    </row>
-    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C884" s="4"/>
-    </row>
-    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C885" s="4"/>
-    </row>
-    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C886" s="4"/>
-    </row>
-    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C887" s="4"/>
-    </row>
-    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C888" s="4"/>
-    </row>
-    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C889" s="4"/>
-    </row>
-    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C890" s="4"/>
-    </row>
-    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C891" s="4"/>
-    </row>
-    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C892" s="4"/>
-    </row>
-    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C893" s="4"/>
-    </row>
-    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C894" s="4"/>
-    </row>
-    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C895" s="4"/>
-    </row>
-    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C896" s="4"/>
-    </row>
-    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C897" s="4"/>
-    </row>
-    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C898" s="4"/>
-    </row>
-    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C899" s="4"/>
-    </row>
-    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C900" s="4"/>
-    </row>
-    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C901" s="4"/>
-    </row>
-    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C902" s="4"/>
-    </row>
-    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C903" s="4"/>
-    </row>
-    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C904" s="4"/>
-    </row>
-    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C905" s="4"/>
-    </row>
-    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C906" s="4"/>
-    </row>
-    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C907" s="4"/>
-    </row>
-    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C908" s="4"/>
-    </row>
-    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C909" s="4"/>
-    </row>
-    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C910" s="4"/>
-    </row>
-    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C911" s="4"/>
-    </row>
-    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C912" s="4"/>
-    </row>
-    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C913" s="4"/>
-    </row>
-    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C914" s="4"/>
-    </row>
-    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C915" s="4"/>
-    </row>
-    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C916" s="4"/>
-    </row>
-    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C917" s="4"/>
-    </row>
-    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C918" s="4"/>
-    </row>
-    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C919" s="4"/>
-    </row>
-    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C920" s="4"/>
-    </row>
-    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C921" s="4"/>
-    </row>
-    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C922" s="4"/>
-    </row>
-    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C923" s="4"/>
-    </row>
-    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C924" s="4"/>
-    </row>
-    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C925" s="4"/>
-    </row>
-    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C926" s="4"/>
-    </row>
-    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C927" s="4"/>
-    </row>
-    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C928" s="4"/>
-    </row>
-    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C929" s="4"/>
-    </row>
-    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C930" s="4"/>
-    </row>
-    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C931" s="4"/>
-    </row>
-    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C932" s="4"/>
-    </row>
-    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C933" s="4"/>
-    </row>
-    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C934" s="4"/>
-    </row>
-    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C935" s="4"/>
-    </row>
-    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C936" s="4"/>
-    </row>
-    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C937" s="4"/>
-    </row>
-    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C938" s="4"/>
-    </row>
-    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C939" s="4"/>
-    </row>
-    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C940" s="4"/>
-    </row>
-    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C941" s="4"/>
-    </row>
-    <row r="942" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C942" s="4"/>
-    </row>
-    <row r="943" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C943" s="4"/>
-    </row>
-    <row r="944" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C944" s="4"/>
-    </row>
-    <row r="945" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C945" s="4"/>
-    </row>
-    <row r="946" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C946" s="4"/>
-    </row>
-    <row r="947" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C947" s="4"/>
-    </row>
-    <row r="948" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C948" s="4"/>
-    </row>
-    <row r="949" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C949" s="4"/>
-    </row>
-    <row r="950" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C950" s="4"/>
-    </row>
-    <row r="951" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C951" s="4"/>
-    </row>
-    <row r="952" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C952" s="4"/>
-    </row>
-    <row r="953" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C953" s="4"/>
-    </row>
-    <row r="954" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C954" s="4"/>
-    </row>
-    <row r="955" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C955" s="4"/>
-    </row>
-    <row r="956" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C956" s="4"/>
-    </row>
-    <row r="957" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C957" s="4"/>
-    </row>
-    <row r="958" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C958" s="4"/>
-    </row>
-    <row r="959" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C959" s="4"/>
-    </row>
-    <row r="960" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C960" s="4"/>
-    </row>
-    <row r="961" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C961" s="4"/>
-    </row>
-    <row r="962" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C962" s="4"/>
-    </row>
-    <row r="963" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C963" s="4"/>
-    </row>
-    <row r="964" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C964" s="4"/>
-    </row>
-    <row r="965" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C965" s="4"/>
-    </row>
-    <row r="966" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C966" s="4"/>
-    </row>
-    <row r="967" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C967" s="4"/>
-    </row>
-    <row r="968" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C968" s="4"/>
-    </row>
-    <row r="969" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C969" s="4"/>
-    </row>
-    <row r="970" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C970" s="4"/>
-    </row>
-    <row r="971" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C971" s="4"/>
-    </row>
-    <row r="972" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C972" s="4"/>
-    </row>
-    <row r="973" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C973" s="4"/>
-    </row>
-    <row r="974" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C974" s="4"/>
-    </row>
-    <row r="975" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C975" s="4"/>
-    </row>
-    <row r="976" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C976" s="4"/>
-    </row>
-    <row r="977" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C977" s="4"/>
-    </row>
-    <row r="978" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C978" s="4"/>
-    </row>
-    <row r="979" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C979" s="4"/>
-    </row>
-    <row r="980" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C980" s="4"/>
-    </row>
-    <row r="981" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C981" s="4"/>
-    </row>
-    <row r="982" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C982" s="4"/>
-    </row>
-    <row r="983" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C983" s="4"/>
-    </row>
-    <row r="984" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C984" s="4"/>
-    </row>
-    <row r="985" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C985" s="4"/>
-    </row>
-    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C986" s="4"/>
-    </row>
-    <row r="987" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C987" s="4"/>
-    </row>
-    <row r="988" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C988" s="4"/>
-    </row>
-    <row r="989" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C989" s="4"/>
-    </row>
-    <row r="990" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C990" s="4"/>
-    </row>
-    <row r="991" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C991" s="4"/>
-    </row>
-    <row r="992" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C992" s="4"/>
-    </row>
-    <row r="993" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C993" s="4"/>
-    </row>
-    <row r="994" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C994" s="4"/>
-    </row>
-    <row r="995" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C995" s="4"/>
-    </row>
-    <row r="996" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C996" s="4"/>
-    </row>
-    <row r="997" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C997" s="4"/>
-    </row>
-    <row r="998" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C998" s="4"/>
-    </row>
-    <row r="999" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C999" s="4"/>
-    </row>
-    <row r="1000" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1000" s="4"/>
-    </row>
-    <row r="1001" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1001" s="4"/>
-    </row>
-    <row r="1002" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1002" s="4"/>
-    </row>
-    <row r="1003" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1003" s="4"/>
-    </row>
-    <row r="1004" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1004" s="4"/>
-    </row>
-    <row r="1005" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1005" s="4"/>
-    </row>
-    <row r="1006" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1006" s="4"/>
-    </row>
-    <row r="1007" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1007" s="4"/>
-    </row>
-    <row r="1008" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1008" s="4"/>
-    </row>
-    <row r="1009" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1009" s="4"/>
-    </row>
-    <row r="1010" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1010" s="4"/>
-    </row>
-    <row r="1011" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1011" s="4"/>
-    </row>
-    <row r="1012" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1012" s="4"/>
-    </row>
-    <row r="1013" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1013" s="4"/>
-    </row>
-    <row r="1014" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1014" s="4"/>
-    </row>
-    <row r="1015" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1015" s="4"/>
-    </row>
-    <row r="1016" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1016" s="4"/>
-    </row>
-    <row r="1017" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1017" s="4"/>
-    </row>
-    <row r="1018" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1018" s="4"/>
-    </row>
-    <row r="1019" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1019" s="4"/>
-    </row>
-    <row r="1020" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1020" s="4"/>
-    </row>
-    <row r="1021" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1021" s="4"/>
-    </row>
-    <row r="1022" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1022" s="4"/>
-    </row>
-    <row r="1023" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1023" s="4"/>
-    </row>
-    <row r="1024" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1024" s="4"/>
-    </row>
-    <row r="1025" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1025" s="4"/>
-    </row>
-    <row r="1026" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1026" s="4"/>
-    </row>
-    <row r="1027" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1027" s="4"/>
-    </row>
-    <row r="1028" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1028" s="4"/>
-    </row>
-    <row r="1029" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1029" s="4"/>
-    </row>
-    <row r="1030" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1030" s="4"/>
-    </row>
-    <row r="1031" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1031" s="4"/>
-    </row>
-    <row r="1032" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1032" s="4"/>
-    </row>
-    <row r="1033" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1033" s="4"/>
-    </row>
-    <row r="1034" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1034" s="4"/>
-    </row>
-    <row r="1035" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1035" s="4"/>
-    </row>
-    <row r="1036" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1036" s="4"/>
-    </row>
-    <row r="1037" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1037" s="4"/>
-    </row>
-    <row r="1038" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1038" s="4"/>
-    </row>
-    <row r="1039" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1039" s="4"/>
-    </row>
-    <row r="1040" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1040" s="4"/>
-    </row>
-    <row r="1041" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1041" s="4"/>
-    </row>
-    <row r="1042" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1042" s="4"/>
-    </row>
-    <row r="1043" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1043" s="4"/>
-    </row>
-    <row r="1044" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1044" s="4"/>
-    </row>
-    <row r="1045" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1045" s="4"/>
-    </row>
-    <row r="1046" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1046" s="4"/>
-    </row>
-    <row r="1047" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1047" s="4"/>
-    </row>
-    <row r="1048" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1048" s="4"/>
-    </row>
-    <row r="1049" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1049" s="4"/>
-    </row>
-    <row r="1050" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1050" s="4"/>
-    </row>
-    <row r="1051" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1051" s="4"/>
-    </row>
-    <row r="1052" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1052" s="4"/>
-    </row>
-    <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1053" s="4"/>
-    </row>
-    <row r="1054" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1054" s="4"/>
-    </row>
-    <row r="1055" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1055" s="4"/>
-    </row>
-    <row r="1056" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1056" s="4"/>
-    </row>
-    <row r="1057" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1057" s="4"/>
-    </row>
-    <row r="1058" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1058" s="4"/>
-    </row>
-    <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1059" s="4"/>
-    </row>
-    <row r="1060" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1060" s="4"/>
-    </row>
-    <row r="1061" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1061" s="4"/>
-    </row>
-    <row r="1062" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1062" s="4"/>
-    </row>
-    <row r="1063" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1063" s="4"/>
-    </row>
-    <row r="1064" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1064" s="4"/>
-    </row>
-    <row r="1065" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1065" s="4"/>
-    </row>
-    <row r="1066" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1066" s="4"/>
-    </row>
-    <row r="1067" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1067" s="4"/>
-    </row>
-    <row r="1068" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1068" s="4"/>
-    </row>
-    <row r="1069" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1069" s="4"/>
-    </row>
-    <row r="1070" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1070" s="4"/>
-    </row>
-    <row r="1071" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1071" s="4"/>
-    </row>
-    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1072" s="4"/>
-    </row>
-    <row r="1073" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1073" s="4"/>
-    </row>
-    <row r="1074" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1074" s="4"/>
-    </row>
-    <row r="1075" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1075" s="4"/>
-    </row>
-    <row r="1076" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1076" s="4"/>
-    </row>
-    <row r="1077" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1077" s="4"/>
-    </row>
-    <row r="1078" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1078" s="4"/>
-    </row>
-    <row r="1079" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1079" s="4"/>
-    </row>
-    <row r="1080" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1080" s="4"/>
-    </row>
-    <row r="1081" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1081" s="4"/>
-    </row>
-    <row r="1082" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1082" s="4"/>
-    </row>
-    <row r="1083" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1083" s="4"/>
-    </row>
-    <row r="1084" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1084" s="4"/>
-    </row>
-    <row r="1085" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1085" s="4"/>
-    </row>
-    <row r="1086" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1086" s="4"/>
-    </row>
-    <row r="1087" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1087" s="4"/>
-    </row>
-    <row r="1088" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1088" s="4"/>
-    </row>
-    <row r="1089" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1089" s="4"/>
-    </row>
-    <row r="1090" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1090" s="4"/>
-    </row>
-    <row r="1091" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1091" s="4"/>
-    </row>
-    <row r="1092" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1092" s="4"/>
-    </row>
-    <row r="1093" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1093" s="4"/>
-    </row>
-    <row r="1094" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1094" s="4"/>
-    </row>
-    <row r="1095" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1095" s="4"/>
-    </row>
-    <row r="1096" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1096" s="4"/>
-    </row>
-    <row r="1097" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1097" s="4"/>
-    </row>
-    <row r="1098" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1098" s="4"/>
-    </row>
-    <row r="1099" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1099" s="4"/>
-    </row>
-    <row r="1100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1100" s="4"/>
-    </row>
-    <row r="1101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1101" s="4"/>
-    </row>
-    <row r="1102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1102" s="4"/>
-    </row>
-    <row r="1103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1103" s="4"/>
-    </row>
-    <row r="1104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1104" s="4"/>
-    </row>
-    <row r="1105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1105" s="4"/>
-    </row>
-    <row r="1106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1106" s="4"/>
-    </row>
-    <row r="1107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1107" s="4"/>
-    </row>
-    <row r="1108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1108" s="4"/>
-    </row>
-    <row r="1109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1109" s="4"/>
-    </row>
-    <row r="1110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1110" s="4"/>
-    </row>
-    <row r="1111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1111" s="4"/>
-    </row>
-    <row r="1112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1112" s="4"/>
-    </row>
-    <row r="1113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1113" s="4"/>
-    </row>
-    <row r="1114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1114" s="4"/>
-    </row>
-    <row r="1115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1115" s="4"/>
-    </row>
-    <row r="1116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1116" s="4"/>
-    </row>
-    <row r="1117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1117" s="4"/>
-    </row>
-    <row r="1118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1118" s="4"/>
-    </row>
-    <row r="1119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1119" s="4"/>
-    </row>
-    <row r="1120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1120" s="4"/>
-    </row>
-    <row r="1121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1121" s="4"/>
-    </row>
-    <row r="1122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1122" s="4"/>
-    </row>
-    <row r="1123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1123" s="4"/>
-    </row>
-    <row r="1124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1124" s="4"/>
-    </row>
-    <row r="1125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1125" s="4"/>
-    </row>
-    <row r="1126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1126" s="4"/>
-    </row>
-    <row r="1127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1127" s="4"/>
-    </row>
-    <row r="1128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1128" s="4"/>
-    </row>
-    <row r="1129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1129" s="4"/>
-    </row>
-    <row r="1130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1130" s="4"/>
-    </row>
-    <row r="1131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1131" s="4"/>
-    </row>
-    <row r="1132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1132" s="4"/>
-    </row>
-    <row r="1133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1133" s="4"/>
-    </row>
-    <row r="1134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1134" s="4"/>
-    </row>
-    <row r="1135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1135" s="4"/>
-    </row>
-    <row r="1136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1136" s="4"/>
-    </row>
-    <row r="1137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1137" s="4"/>
-    </row>
-    <row r="1138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1138" s="4"/>
-    </row>
-    <row r="1139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1139" s="4"/>
-    </row>
-    <row r="1140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1140" s="4"/>
-    </row>
-    <row r="1141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1141" s="4"/>
-    </row>
-    <row r="1142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1142" s="4"/>
-    </row>
-    <row r="1143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1143" s="4"/>
-    </row>
-    <row r="1144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1144" s="4"/>
-    </row>
-    <row r="1145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1145" s="4"/>
-    </row>
-    <row r="1146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1146" s="4"/>
-    </row>
-    <row r="1147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1147" s="4"/>
-    </row>
-    <row r="1148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1148" s="4"/>
-    </row>
-    <row r="1149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1149" s="4"/>
-    </row>
-    <row r="1150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1150" s="4"/>
-    </row>
-    <row r="1151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1151" s="4"/>
-    </row>
-    <row r="1152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1152" s="4"/>
-    </row>
-    <row r="1153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1153" s="4"/>
-    </row>
-    <row r="1154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1154" s="4"/>
-    </row>
-    <row r="1155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1155" s="4"/>
-    </row>
-    <row r="1156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1156" s="4"/>
-    </row>
-    <row r="1157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1157" s="4"/>
-    </row>
-    <row r="1158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1158" s="4"/>
-    </row>
-    <row r="1159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1159" s="4"/>
-    </row>
-    <row r="1160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1160" s="4"/>
-    </row>
-    <row r="1161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1161" s="4"/>
-    </row>
-    <row r="1162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1162" s="4"/>
-    </row>
-    <row r="1163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1163" s="4"/>
-    </row>
-    <row r="1164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1164" s="4"/>
-    </row>
-    <row r="1165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1165" s="4"/>
-    </row>
-    <row r="1166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1166" s="4"/>
-    </row>
-    <row r="1167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1167" s="4"/>
-    </row>
-    <row r="1168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1168" s="4"/>
-    </row>
-    <row r="1169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1169" s="4"/>
-    </row>
-    <row r="1170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1170" s="4"/>
-    </row>
-    <row r="1171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1171" s="4"/>
-    </row>
-    <row r="1172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1172" s="4"/>
-    </row>
-    <row r="1173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1173" s="4"/>
-    </row>
-    <row r="1174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1174" s="4"/>
-    </row>
-    <row r="1175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1175" s="4"/>
-    </row>
-    <row r="1176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1176" s="4"/>
-    </row>
-    <row r="1177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1177" s="4"/>
-    </row>
-    <row r="1178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1178" s="4"/>
-    </row>
-    <row r="1179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1179" s="4"/>
-    </row>
-    <row r="1180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1180" s="4"/>
-    </row>
-    <row r="1181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1181" s="4"/>
-    </row>
-    <row r="1182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1182" s="4"/>
-    </row>
-    <row r="1183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1183" s="4"/>
-    </row>
-    <row r="1184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1184" s="4"/>
-    </row>
-    <row r="1185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1185" s="4"/>
-    </row>
-    <row r="1186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1186" s="4"/>
-    </row>
-    <row r="1187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1187" s="4"/>
-    </row>
-    <row r="1188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1188" s="4"/>
-    </row>
-    <row r="1189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1189" s="4"/>
-    </row>
-    <row r="1190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1190" s="4"/>
-    </row>
-    <row r="1191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1191" s="4"/>
-    </row>
-    <row r="1192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1192" s="4"/>
-    </row>
-    <row r="1193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1193" s="4"/>
-    </row>
-    <row r="1194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1194" s="4"/>
-    </row>
-    <row r="1195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1195" s="4"/>
-    </row>
-    <row r="1196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1196" s="4"/>
-    </row>
-    <row r="1197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1197" s="4"/>
-    </row>
-    <row r="1198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1198" s="4"/>
-    </row>
-    <row r="1199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1199" s="4"/>
-    </row>
-    <row r="1200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1200" s="4"/>
-    </row>
-    <row r="1201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1201" s="4"/>
-    </row>
-    <row r="1202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1202" s="4"/>
-    </row>
-    <row r="1203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1203" s="4"/>
-    </row>
-    <row r="1204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1204" s="4"/>
-    </row>
-    <row r="1205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1205" s="4"/>
-    </row>
-    <row r="1206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1206" s="4"/>
-    </row>
-    <row r="1207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1207" s="4"/>
-    </row>
-    <row r="1208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1208" s="4"/>
-    </row>
-    <row r="1209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1209" s="4"/>
-    </row>
-    <row r="1210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1210" s="4"/>
-    </row>
-    <row r="1211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1211" s="4"/>
-    </row>
-    <row r="1212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1212" s="4"/>
-    </row>
-    <row r="1213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1213" s="4"/>
-    </row>
-    <row r="1214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1214" s="4"/>
-    </row>
-    <row r="1215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1215" s="4"/>
-    </row>
-    <row r="1216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1216" s="4"/>
-    </row>
-    <row r="1217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1217" s="4"/>
-    </row>
-    <row r="1218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1218" s="4"/>
-    </row>
-    <row r="1219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1219" s="4"/>
-    </row>
-    <row r="1220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1220" s="4"/>
-    </row>
-    <row r="1221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1221" s="4"/>
-    </row>
-    <row r="1222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1222" s="4"/>
-    </row>
-    <row r="1223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1223" s="4"/>
-    </row>
-    <row r="1224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1224" s="4"/>
-    </row>
-    <row r="1225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1225" s="4"/>
-    </row>
-    <row r="1226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1226" s="4"/>
-    </row>
-    <row r="1227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1227" s="4"/>
-    </row>
-    <row r="1228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1228" s="4"/>
-    </row>
-    <row r="1229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1229" s="4"/>
-    </row>
-    <row r="1230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1230" s="4"/>
-    </row>
-    <row r="1231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1231" s="4"/>
-    </row>
-    <row r="1232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1232" s="4"/>
-    </row>
-    <row r="1233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1233" s="4"/>
-    </row>
-    <row r="1234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1234" s="4"/>
-    </row>
-    <row r="1235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1235" s="4"/>
-    </row>
-    <row r="1236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1236" s="4"/>
-    </row>
-    <row r="1237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1237" s="4"/>
-    </row>
-    <row r="1238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1238" s="4"/>
-    </row>
-    <row r="1239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1239" s="4"/>
-    </row>
-    <row r="1240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1240" s="4"/>
-    </row>
-    <row r="1241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1241" s="4"/>
-    </row>
-    <row r="1242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1242" s="4"/>
-    </row>
-    <row r="1243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1243" s="4"/>
-    </row>
-    <row r="1244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1244" s="4"/>
-    </row>
-    <row r="1245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1245" s="4"/>
-    </row>
-    <row r="1246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1246" s="4"/>
-    </row>
-    <row r="1247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1247" s="4"/>
-    </row>
-    <row r="1248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1248" s="4"/>
-    </row>
-    <row r="1249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1249" s="4"/>
-    </row>
-    <row r="1250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1250" s="4"/>
-    </row>
-    <row r="1251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1251" s="4"/>
-    </row>
-    <row r="1252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1252" s="4"/>
-    </row>
-    <row r="1253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1253" s="4"/>
-    </row>
-    <row r="1254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1254" s="4"/>
-    </row>
-    <row r="1255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1255" s="4"/>
-    </row>
-    <row r="1256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1256" s="4"/>
-    </row>
-    <row r="1257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1257" s="4"/>
-    </row>
-    <row r="1258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1258" s="4"/>
-    </row>
-    <row r="1259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1259" s="4"/>
-    </row>
-    <row r="1260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1260" s="4"/>
-    </row>
-    <row r="1261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1261" s="4"/>
-    </row>
-    <row r="1262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1262" s="4"/>
-    </row>
-    <row r="1263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1263" s="4"/>
-    </row>
-    <row r="1264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1264" s="4"/>
-    </row>
-    <row r="1265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1265" s="4"/>
-    </row>
-    <row r="1266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1266" s="4"/>
-    </row>
-    <row r="1267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1267" s="4"/>
-    </row>
-    <row r="1268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1268" s="4"/>
-    </row>
-    <row r="1269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1269" s="4"/>
-    </row>
-    <row r="1270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1270" s="4"/>
-    </row>
-    <row r="1271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1271" s="4"/>
-    </row>
-    <row r="1272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1272" s="4"/>
-    </row>
-    <row r="1273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1273" s="4"/>
-    </row>
-    <row r="1274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1274" s="4"/>
-    </row>
-    <row r="1275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1275" s="4"/>
-    </row>
-    <row r="1276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1276" s="4"/>
-    </row>
-    <row r="1277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1277" s="4"/>
-    </row>
-    <row r="1278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1278" s="4"/>
-    </row>
-    <row r="1279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1279" s="4"/>
-    </row>
-    <row r="1280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1280" s="4"/>
-    </row>
-    <row r="1281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1281" s="4"/>
-    </row>
-    <row r="1282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1282" s="4"/>
-    </row>
-    <row r="1283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1283" s="4"/>
-    </row>
-    <row r="1284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1284" s="4"/>
-    </row>
-    <row r="1285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1285" s="4"/>
-    </row>
-    <row r="1286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1286" s="4"/>
-    </row>
-    <row r="1287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1287" s="4"/>
-    </row>
-    <row r="1288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1288" s="4"/>
-    </row>
-    <row r="1289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1289" s="4"/>
-    </row>
-    <row r="1290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1290" s="4"/>
-    </row>
-    <row r="1291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1291" s="4"/>
-    </row>
-    <row r="1292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1292" s="4"/>
-    </row>
-    <row r="1293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1293" s="4"/>
-    </row>
-    <row r="1294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1294" s="4"/>
-    </row>
-    <row r="1295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1295" s="4"/>
-    </row>
-    <row r="1296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1296" s="4"/>
-    </row>
-    <row r="1297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1297" s="4"/>
-    </row>
-    <row r="1298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1298" s="4"/>
-    </row>
-    <row r="1299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1299" s="4"/>
-    </row>
-    <row r="1300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1300" s="4"/>
-    </row>
-    <row r="1301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1301" s="4"/>
-    </row>
-    <row r="1302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1302" s="4"/>
-    </row>
-    <row r="1303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1303" s="4"/>
-    </row>
-    <row r="1304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1304" s="4"/>
-    </row>
-    <row r="1305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1305" s="4"/>
-    </row>
-    <row r="1306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1306" s="4"/>
-    </row>
-    <row r="1307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1307" s="4"/>
-    </row>
-    <row r="1308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1308" s="4"/>
-    </row>
-    <row r="1309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1309" s="4"/>
-    </row>
-    <row r="1310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1310" s="4"/>
-    </row>
-    <row r="1311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1311" s="4"/>
-    </row>
-    <row r="1312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1312" s="4"/>
-    </row>
-    <row r="1313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1313" s="4"/>
-    </row>
-    <row r="1314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1314" s="4"/>
-    </row>
-    <row r="1315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1315" s="4"/>
-    </row>
-    <row r="1316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1316" s="4"/>
-    </row>
-    <row r="1317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1317" s="4"/>
-    </row>
-    <row r="1318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1318" s="4"/>
-    </row>
-    <row r="1319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1319" s="4"/>
-    </row>
-    <row r="1320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1320" s="4"/>
-    </row>
-    <row r="1321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1321" s="4"/>
-    </row>
-    <row r="1322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1322" s="4"/>
-    </row>
-    <row r="1323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1323" s="4"/>
-    </row>
-    <row r="1324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1324" s="4"/>
-    </row>
-    <row r="1325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1325" s="4"/>
-    </row>
-    <row r="1326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1326" s="4"/>
-    </row>
-    <row r="1327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1327" s="4"/>
-    </row>
-    <row r="1328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1328" s="4"/>
-    </row>
-    <row r="1329" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1329" s="4"/>
-    </row>
-    <row r="1330" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1330" s="4"/>
-    </row>
-    <row r="1331" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1331" s="4"/>
-    </row>
-    <row r="1332" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1332" s="4"/>
-    </row>
-    <row r="1333" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1333" s="4"/>
-    </row>
-    <row r="1334" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1334" s="4"/>
-    </row>
-    <row r="1335" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1335" s="4"/>
-    </row>
-    <row r="1336" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1336" s="4"/>
-    </row>
-    <row r="1337" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1337" s="4"/>
-    </row>
-    <row r="1338" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1338" s="4"/>
-    </row>
-    <row r="1339" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1339" s="4"/>
-    </row>
-    <row r="1340" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1340" s="4"/>
-    </row>
-    <row r="1341" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1341" s="4"/>
-    </row>
-    <row r="1342" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1342" s="4"/>
-    </row>
-    <row r="1343" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1343" s="4"/>
-    </row>
-    <row r="1344" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1344" s="4"/>
-    </row>
-    <row r="1345" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1345" s="4"/>
-    </row>
-    <row r="1346" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1346" s="4"/>
-    </row>
-    <row r="1347" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1347" s="4"/>
-    </row>
-    <row r="1348" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1348" s="4"/>
-    </row>
-    <row r="1349" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1349" s="4"/>
-    </row>
-    <row r="1350" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1350" s="4"/>
-    </row>
-    <row r="1351" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1351" s="4"/>
-    </row>
-    <row r="1352" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1352" s="4"/>
-    </row>
-    <row r="1353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1353" s="4"/>
-    </row>
-    <row r="1354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1354" s="4"/>
-    </row>
-    <row r="1355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1355" s="4"/>
-    </row>
-    <row r="1356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1356" s="4"/>
-    </row>
-    <row r="1357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1357" s="4"/>
-    </row>
-    <row r="1358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1358" s="4"/>
-    </row>
-    <row r="1359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1359" s="4"/>
-    </row>
-    <row r="1360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1360" s="4"/>
-    </row>
-    <row r="1361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1361" s="4"/>
-    </row>
-    <row r="1362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1362" s="4"/>
-    </row>
-    <row r="1363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1363" s="4"/>
-    </row>
-    <row r="1364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1364" s="4"/>
-    </row>
-    <row r="1365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1365" s="4"/>
-    </row>
-    <row r="1366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1366" s="4"/>
-    </row>
-    <row r="1367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1367" s="4"/>
-    </row>
-    <row r="1368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1368" s="4"/>
-    </row>
-    <row r="1369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1369" s="4"/>
-    </row>
-    <row r="1370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1370" s="4"/>
-    </row>
-    <row r="1371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1371" s="4"/>
-    </row>
-    <row r="1372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1372" s="4"/>
-    </row>
-    <row r="1373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1373" s="4"/>
-    </row>
-    <row r="1374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1374" s="4"/>
-    </row>
-    <row r="1375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1375" s="4"/>
-    </row>
-    <row r="1376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1376" s="4"/>
-    </row>
-    <row r="1377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1377" s="4"/>
-    </row>
-    <row r="1378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1378" s="4"/>
-    </row>
-    <row r="1379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1379" s="4"/>
-    </row>
-    <row r="1380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1380" s="4"/>
-    </row>
-    <row r="1381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1381" s="4"/>
-    </row>
-    <row r="1382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1382" s="4"/>
-    </row>
-    <row r="1383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1383" s="4"/>
-    </row>
-    <row r="1384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1384" s="4"/>
-    </row>
-    <row r="1385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1385" s="4"/>
-    </row>
-    <row r="1386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1386" s="4"/>
-    </row>
-    <row r="1387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1387" s="4"/>
-    </row>
-    <row r="1388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1388" s="4"/>
-    </row>
-    <row r="1389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1389" s="4"/>
-    </row>
-    <row r="1390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1390" s="4"/>
-    </row>
-    <row r="1391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1391" s="4"/>
-    </row>
-    <row r="1392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1392" s="4"/>
-    </row>
-    <row r="1393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1393" s="4"/>
-    </row>
-    <row r="1394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1394" s="4"/>
-    </row>
-    <row r="1395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1395" s="4"/>
-    </row>
-    <row r="1396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1396" s="4"/>
-    </row>
-    <row r="1397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1397" s="4"/>
-    </row>
-    <row r="1398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1398" s="4"/>
-    </row>
-    <row r="1399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1399" s="4"/>
-    </row>
-    <row r="1400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1400" s="4"/>
-    </row>
-    <row r="1401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1401" s="4"/>
-    </row>
-    <row r="1402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1402" s="4"/>
-    </row>
-    <row r="1403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1403" s="4"/>
-    </row>
-    <row r="1404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1404" s="4"/>
-    </row>
-    <row r="1405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1405" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
